--- a/HPMW project file/HPMW ppt 파일/박동규 개인프로젝트.xlsx
+++ b/HPMW project file/HPMW ppt 파일/박동규 개인프로젝트.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitLocation\HPMWPro\개인프로젝트\박동규 개인프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitLocation\HPMWPro\HPMW project file\HPMW ppt 파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B79CAC-F572-4444-ABEC-75FC633D4A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6202ADDA-E902-483D-95A4-94A84E9F0075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23490" yWindow="7755" windowWidth="21720" windowHeight="9930" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="750" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="8" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="260">
   <si>
     <t>이용자 권한과 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -474,10 +474,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공지사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>행사 게시판 글 등록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -503,10 +499,6 @@
   </si>
   <si>
     <t>행사 게시판 글 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파트타이머 근로계약서 삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -541,14 +533,6 @@
   </si>
   <si>
     <t xml:space="preserve">공지사항 글 등록 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">파트타이머 근로계약서 목록 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파트타이머 근로계약서 목록 보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -594,10 +578,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">partTimer/ptWriteEmpConView.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PartTimerDTO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -610,18 +590,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ptId, ptName, ptTel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ptModifyEmpConView.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>partTimer/ptModifyEmpConView.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ptModifyEmpCon.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -702,10 +670,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mno</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EventsDTO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -750,55 +714,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ptEmpConList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PtEmpConListService.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>employContract/ptEmpConList.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>파트타이머 근로계약서 보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ptConNO, Manager DTO, 
-ptEmpConChck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ptEmpConDelete.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ptEmpConDeleteService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">파트타이머 행사 할당 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ptEventInsert.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PtEventsInsertService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ptEventSubmit.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PtEventsSubmitService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공지사항 글 보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -811,18 +738,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">NoticeBoardContentService.java </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">noticeBoard/noticeBoardWriteView.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>noticeBoardWrite.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -835,14 +754,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>noticeBoardModifyView.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">noticeBoard/noticeBoardModifyView.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>noticeBoardModify.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -872,10 +783,6 @@
   </si>
   <si>
     <t>ManagerDeleteService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -884,80 +791,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>파트타이머 근로계약서 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">매니저 로그인 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>managerLogin.do</t>
   </si>
   <si>
     <t>main/main.jsp</t>
   </si>
   <si>
-    <t>공통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">메인페이지 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 3종 출력
-10개씩만</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AllBoardListService</t>
-  </si>
-  <si>
     <t>ManagerListService.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">로그아웃 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">모든 계정 로그아웃 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logout.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">NoticeBoardContentDetailService.java </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>noticeBoardContentDetail.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">noticeBoard/noticeBoardContentDetail.jsp </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ManagerLoginService</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LogoutService</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>파트타이머 로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -967,10 +818,6 @@
   </si>
   <si>
     <t xml:space="preserve">eventsBoard/eventsBoardWriteView.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ptWriteEmpConDetailService.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1096,6 +943,128 @@
   </si>
   <si>
     <t>mno</t>
+  </si>
+  <si>
+    <t>noticeBoardContentDetail.do</t>
+  </si>
+  <si>
+    <t>noticeBoard/noticeBoardWriteView.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noticeBoardModifyView.do</t>
+  </si>
+  <si>
+    <t>noticeBoard/noticeBoardModifyView.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventsBoardList.do</t>
+  </si>
+  <si>
+    <t>EventsBoardWriteViewService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventsTypeDTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">파트타이머 당일 근로계약서 목록 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파트타이머 마감된 근로계약서 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ptEmpConList.do</t>
+  </si>
+  <si>
+    <t>parttimerContract/ptEmpConList.jsp</t>
+  </si>
+  <si>
+    <t>pastptEmpConList.do</t>
+  </si>
+  <si>
+    <t>PastPtEmpConListService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parttimerContract/pastptEmpConList.jsp</t>
+  </si>
+  <si>
+    <t>ptModifyEmpConView.do</t>
+  </si>
+  <si>
+    <t>BankTypeDTO, EventsDTO,
+EventsTypeDTO, ParttimerContractDTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parttimerContract/ptModifyEmpConView.jsp</t>
+  </si>
+  <si>
+    <t>PtInsertEvents.do</t>
+  </si>
+  <si>
+    <t>PtInsertEventsService.java</t>
+  </si>
+  <si>
+    <t>evno, ptconno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ptEmpConSubmit.do</t>
+  </si>
+  <si>
+    <t>PtEmpConSubmitService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ptconno, pthourlywage, pttotalpay, ptworktime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parttimerContractModify.do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">파트타이머 근로계약서 마감 수정을
+위한 마감 처리 취소 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParttimerContractModifyService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ptconno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지</t>
+  </si>
+  <si>
+    <t>메인페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항</t>
+  </si>
+  <si>
+    <t>메인페이지 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 페이지의 게시글 리스트 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main.do</t>
+  </si>
+  <si>
+    <t>AllBoardListService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1576,7 +1545,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1766,115 +1735,130 @@
     <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2277,41 +2261,41 @@
     <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
@@ -2356,32 +2340,32 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="16"/>
       <c r="B6" s="20"/>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="72" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="39"/>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="77" t="s">
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="16"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="74"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="22"/>
       <c r="E7" s="13">
         <v>27</v>
@@ -2481,7 +2465,7 @@
     <row r="11" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="16"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="77" t="s">
         <v>54</v>
       </c>
       <c r="D11" s="10"/>
@@ -2502,7 +2486,7 @@
     <row r="12" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="16"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="67"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="10"/>
       <c r="E12" s="8"/>
       <c r="F12" s="6"/>
@@ -2540,7 +2524,7 @@
     <row r="14" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="16"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="69" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="10"/>
@@ -2561,7 +2545,7 @@
     <row r="15" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="16"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="70"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="10"/>
       <c r="E15" s="8"/>
       <c r="F15" s="6"/>
@@ -2599,7 +2583,7 @@
     <row r="17" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="16"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="77" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="10"/>
@@ -2620,7 +2604,7 @@
     <row r="18" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="16"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="67"/>
+      <c r="C18" s="77"/>
       <c r="D18" s="10"/>
       <c r="E18" s="6"/>
       <c r="F18" s="8"/>
@@ -2679,7 +2663,7 @@
     <row r="21" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="16"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="79" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="10"/>
@@ -2700,7 +2684,7 @@
     <row r="22" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="16"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="68"/>
+      <c r="C22" s="79"/>
       <c r="D22" s="10"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -2738,7 +2722,7 @@
     <row r="24" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="79" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="10"/>
@@ -2759,7 +2743,7 @@
     <row r="25" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="16"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="68"/>
+      <c r="C25" s="79"/>
       <c r="D25" s="10"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -2797,7 +2781,7 @@
     <row r="27" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="16"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="79" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="10"/>
@@ -2818,7 +2802,7 @@
     <row r="28" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="16"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="68"/>
+      <c r="C28" s="79"/>
       <c r="D28" s="10"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -2856,7 +2840,7 @@
     <row r="30" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="16"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="68" t="s">
+      <c r="C30" s="79" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="10"/>
@@ -2877,7 +2861,7 @@
     <row r="31" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="16"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="68"/>
+      <c r="C31" s="79"/>
       <c r="D31" s="10"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -2915,7 +2899,7 @@
     <row r="33" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="16"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="68" t="s">
+      <c r="C33" s="79" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="10"/>
@@ -2936,7 +2920,7 @@
     <row r="34" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="16"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="68"/>
+      <c r="C34" s="79"/>
       <c r="D34" s="10"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -2974,7 +2958,7 @@
     <row r="36" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="16"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="68" t="s">
+      <c r="C36" s="79" t="s">
         <v>76</v>
       </c>
       <c r="D36" s="10"/>
@@ -2995,7 +2979,7 @@
     <row r="37" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="16"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="68"/>
+      <c r="C37" s="79"/>
       <c r="D37" s="10"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -3054,7 +3038,7 @@
     <row r="40" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="16"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="69" t="s">
+      <c r="C40" s="80" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="10"/>
@@ -3075,7 +3059,7 @@
     <row r="41" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="69"/>
+      <c r="C41" s="80"/>
       <c r="D41" s="10"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -3113,7 +3097,7 @@
     <row r="43" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="16"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="69" t="s">
+      <c r="C43" s="80" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="10"/>
@@ -3134,7 +3118,7 @@
     <row r="44" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="16"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="69"/>
+      <c r="C44" s="80"/>
       <c r="D44" s="10"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -3172,7 +3156,7 @@
     <row r="46" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="16"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="69" t="s">
+      <c r="C46" s="80" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="10"/>
@@ -3193,7 +3177,7 @@
     <row r="47" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="69"/>
+      <c r="C47" s="80"/>
       <c r="D47" s="10"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -3231,7 +3215,7 @@
     <row r="49" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="69" t="s">
+      <c r="C49" s="80" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="10"/>
@@ -3252,7 +3236,7 @@
     <row r="50" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="69"/>
+      <c r="C50" s="80"/>
       <c r="D50" s="10"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -3311,7 +3295,7 @@
     <row r="53" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="16"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="64" t="s">
+      <c r="C53" s="78" t="s">
         <v>32</v>
       </c>
       <c r="D53" s="10"/>
@@ -3332,7 +3316,7 @@
     <row r="54" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="64"/>
+      <c r="C54" s="78"/>
       <c r="D54" s="10"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -3370,7 +3354,7 @@
     <row r="56" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="16"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="64" t="s">
+      <c r="C56" s="78" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="10"/>
@@ -3391,7 +3375,7 @@
     <row r="57" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="64"/>
+      <c r="C57" s="78"/>
       <c r="D57" s="10"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -3429,7 +3413,7 @@
     <row r="59" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="64" t="s">
+      <c r="C59" s="78" t="s">
         <v>34</v>
       </c>
       <c r="D59" s="10"/>
@@ -3450,7 +3434,7 @@
     <row r="60" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="16"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="64"/>
+      <c r="C60" s="78"/>
       <c r="D60" s="10"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -3488,7 +3472,7 @@
     <row r="62" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="16"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="64" t="s">
+      <c r="C62" s="78" t="s">
         <v>35</v>
       </c>
       <c r="D62" s="10"/>
@@ -3509,7 +3493,7 @@
     <row r="63" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="16"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="64"/>
+      <c r="C63" s="78"/>
       <c r="D63" s="10"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -3547,7 +3531,7 @@
     <row r="65" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="16"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="64" t="s">
+      <c r="C65" s="78" t="s">
         <v>36</v>
       </c>
       <c r="D65" s="10"/>
@@ -3568,7 +3552,7 @@
     <row r="66" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="16"/>
       <c r="B66" s="6"/>
-      <c r="C66" s="64"/>
+      <c r="C66" s="78"/>
       <c r="D66" s="10"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -3606,7 +3590,7 @@
     <row r="68" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="16"/>
       <c r="B68" s="6"/>
-      <c r="C68" s="65" t="s">
+      <c r="C68" s="82" t="s">
         <v>67</v>
       </c>
       <c r="D68" s="7"/>
@@ -3627,7 +3611,7 @@
     <row r="69" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="16"/>
       <c r="B69" s="6"/>
-      <c r="C69" s="65"/>
+      <c r="C69" s="82"/>
       <c r="D69" s="7"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -3687,18 +3671,18 @@
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="66"/>
+      <c r="F72" s="83"/>
+      <c r="G72" s="83"/>
       <c r="H72" s="6"/>
       <c r="I72" s="38" t="s">
         <v>86</v>
       </c>
       <c r="J72" s="38"/>
       <c r="K72" s="6"/>
-      <c r="L72" s="63" t="s">
+      <c r="L72" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="M72" s="63"/>
+      <c r="M72" s="81"/>
       <c r="N72" s="42"/>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
@@ -3724,12 +3708,13 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="F72:G72"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C21:C22"/>
@@ -3742,13 +3727,12 @@
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3777,7 +3761,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="84" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3788,7 +3772,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="78"/>
+      <c r="A4" s="84"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3800,7 +3784,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="78"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3815,7 +3799,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="78"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3984,21 +3968,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:K49"/>
+  <dimension ref="B2:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2" style="45" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="45" customWidth="1"/>
-    <col min="3" max="3" width="9" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.796875" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="30.296875" style="45" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" style="45" customWidth="1"/>
+    <col min="7" max="7" width="26.59765625" style="45" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="39.19921875" style="45" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="48.796875" style="45" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.69921875" style="45"/>
@@ -4033,48 +4016,48 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="86" t="s">
-        <v>224</v>
-      </c>
-      <c r="E3" s="86" t="s">
+      <c r="D3" s="92" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="92" t="s">
         <v>101</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="G3" s="51"/>
       <c r="H3" s="51"/>
       <c r="I3" s="51" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="95"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="51" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="G4" s="51" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="H4" s="51" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I4" s="51" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="95"/>
-      <c r="C5" s="81" t="s">
+      <c r="B5" s="96"/>
+      <c r="C5" s="94" t="s">
         <v>89</v>
       </c>
       <c r="D5" s="52" t="s">
@@ -4084,1041 +4067,882 @@
         <v>93</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H5" s="51" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="I5" s="46" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="86" t="s">
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="92" t="s">
         <v>94</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="G6" s="51" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="H6" s="51" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="95"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
       <c r="F7" s="51" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="G7" s="46"/>
       <c r="H7" s="51"/>
       <c r="I7" s="46"/>
     </row>
     <row r="8" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="95"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="86" t="s">
+      <c r="B8" s="96"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="92" t="s">
         <v>91</v>
       </c>
       <c r="E8" s="61" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="F8" s="51" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="G8" s="51" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="H8" s="51" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="I8" s="51" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="96"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="H9" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="I9" s="67" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="96"/>
+      <c r="C10" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>257</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="I10" s="51" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="96"/>
+      <c r="C11" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="46"/>
+      <c r="H11" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="96"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="51" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="95"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="51" t="s">
+      <c r="H12" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="I12" s="51" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="96"/>
+      <c r="C13" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G13" s="51"/>
+      <c r="H13" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="I13" s="51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="96"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="I14" s="51" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="96"/>
+      <c r="C15" s="94" t="s">
+        <v>204</v>
+      </c>
+      <c r="D15" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="92" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" s="90" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="I15" s="90" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="85" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="99" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" s="99" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" s="68" t="s">
+        <v>208</v>
+      </c>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="68" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="H18" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="I18" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B19" s="86"/>
+      <c r="C19" s="64" t="s">
+        <v>253</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="F19" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="I19" s="50" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="86"/>
+      <c r="C20" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" s="50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="H21" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="I21" s="50" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="99" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="H22" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="I22" s="50" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="G23" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="I23" s="50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="99" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="99" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="H24" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="I24" s="50" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="H25" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="I25" s="50" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B26" s="86"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="G26" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="H26" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="I26" s="50" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B27" s="86"/>
+      <c r="C27" s="85" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="F27" s="50" t="s">
         <v>235</v>
-      </c>
-      <c r="H9" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="I9" s="51" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="95"/>
-      <c r="C10" s="81" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="G10" s="46"/>
-      <c r="H10" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="I10" s="46" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="95"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="G11" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="H11" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="I11" s="51" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="95"/>
-      <c r="C12" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="F12" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="I12" s="51" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="95"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="H13" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="I13" s="51" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="95"/>
-      <c r="C14" s="81" t="s">
-        <v>242</v>
-      </c>
-      <c r="D14" s="86" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="86" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" s="97" t="s">
-        <v>243</v>
-      </c>
-      <c r="G14" s="97" t="s">
-        <v>157</v>
-      </c>
-      <c r="H14" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="I14" s="97" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="83" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="83" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="79" t="s">
-        <v>245</v>
-      </c>
-      <c r="E16" s="79" t="s">
-        <v>245</v>
-      </c>
-      <c r="F16" s="99" t="s">
-        <v>246</v>
-      </c>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B17" s="84"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="99" t="s">
-        <v>208</v>
-      </c>
-      <c r="G17" s="99" t="s">
-        <v>248</v>
-      </c>
-      <c r="H17" s="99" t="s">
-        <v>249</v>
-      </c>
-      <c r="I17" s="50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="84"/>
-      <c r="C18" s="83" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="I18" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="J18" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="K18" s="45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="G19" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="H19" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="I19" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="J19" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="K19" s="45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="79" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" s="79" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="G20" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50" t="s">
-        <v>226</v>
-      </c>
-      <c r="J20" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="K20" s="45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="G21" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="H21" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="I21" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="J21" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="K21" s="45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="79" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="79" t="s">
-        <v>107</v>
-      </c>
-      <c r="F22" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="G22" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="H22" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="I22" s="50" t="s">
-        <v>225</v>
-      </c>
-      <c r="J22" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="K22" s="45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="G23" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="H23" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="I23" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="J23" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="K23" s="45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B24" s="84"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="F24" s="50" t="s">
-        <v>167</v>
-      </c>
-      <c r="G24" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="H24" s="50" t="s">
-        <v>171</v>
-      </c>
-      <c r="I24" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="J24" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="K24" s="45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B25" s="84"/>
-      <c r="C25" s="83" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="E25" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="I25" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="J25" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="K25" s="45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="E26" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="F26" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="G26" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="H26" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="I26" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="J26" s="45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="F27" s="50" t="s">
-        <v>177</v>
       </c>
       <c r="G27" s="50"/>
       <c r="H27" s="50" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="I27" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="J27" s="45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="91" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="F28" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="I28" s="50" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="G29" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="H29" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="I29" s="50" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="F30" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="G30" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="H30" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="I30" s="50" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="G31" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="H31" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="I31" s="50" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B32" s="86"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="E32" s="59" t="s">
+        <v>250</v>
+      </c>
+      <c r="F32" s="68" t="s">
+        <v>249</v>
+      </c>
+      <c r="G32" s="68" t="s">
+        <v>252</v>
+      </c>
+      <c r="H32" s="68" t="s">
+        <v>251</v>
+      </c>
+      <c r="I32" s="68" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B33" s="86"/>
+      <c r="C33" s="85" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="E28" s="79" t="s">
-        <v>179</v>
-      </c>
-      <c r="F28" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="G28" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="H28" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="I28" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="J28" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="K28" s="45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="G29" s="51" t="s">
+      <c r="E33" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" s="50" t="s">
         <v>134</v>
-      </c>
-      <c r="H29" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="I29" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="J29" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="K29" s="45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="91" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" s="91" t="s">
-        <v>125</v>
-      </c>
-      <c r="F30" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="G30" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="H30" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="I30" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="J30" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="K30" s="45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="51" t="s">
-        <v>182</v>
-      </c>
-      <c r="G31" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="H31" s="51" t="s">
-        <v>183</v>
-      </c>
-      <c r="I31" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="J31" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="K31" s="45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="B32" s="84"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="58" t="s">
-        <v>204</v>
-      </c>
-      <c r="E32" s="59" t="s">
-        <v>205</v>
-      </c>
-      <c r="F32" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B33" s="84"/>
-      <c r="C33" s="83" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="E33" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="F33" s="50" t="s">
-        <v>142</v>
       </c>
       <c r="G33" s="50"/>
       <c r="H33" s="50" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I33" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="J33" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="K33" s="45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B34" s="86"/>
+      <c r="C34" s="86"/>
       <c r="D34" s="53" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="E34" s="55" t="s">
         <v>88</v>
       </c>
       <c r="F34" s="50" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G34" s="50" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H34" s="50" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="I34" s="50" t="s">
-        <v>221</v>
-      </c>
-      <c r="J34" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="K34" s="45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="79" t="s">
-        <v>117</v>
-      </c>
-      <c r="E35" s="79" t="s">
-        <v>121</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B35" s="86"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="99" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="99" t="s">
+        <v>119</v>
       </c>
       <c r="F35" s="50" t="s">
-        <v>185</v>
-      </c>
-      <c r="G35" s="50" t="s">
-        <v>187</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G35" s="50"/>
       <c r="H35" s="50"/>
       <c r="I35" s="50" t="s">
-        <v>189</v>
-      </c>
-      <c r="J35" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="K35" s="45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="86"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="100"/>
       <c r="F36" s="50" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="G36" s="50" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="H36" s="50" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="I36" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="J36" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="K36" s="45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="79" t="s">
-        <v>119</v>
-      </c>
-      <c r="E37" s="79" t="s">
-        <v>119</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="86"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="99" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="99" t="s">
+        <v>117</v>
       </c>
       <c r="F37" s="50" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="G37" s="50" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H37" s="50"/>
       <c r="I37" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="J37" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="K37" s="45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="86"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="100"/>
       <c r="F38" s="50" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="G38" s="50" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="H38" s="50" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="I38" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="J38" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="K38" s="45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B39" s="87"/>
+      <c r="C39" s="87"/>
       <c r="D39" s="56" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E39" s="53" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F39" s="50" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="G39" s="50"/>
       <c r="H39" s="50" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="I39" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="J39" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="K39" s="45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="88" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="88" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="D40" s="93" t="s">
-        <v>250</v>
+      <c r="D40" s="88" t="s">
+        <v>212</v>
       </c>
       <c r="E40" s="57" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="F40" s="48" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="G40" s="48"/>
       <c r="H40" s="48" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="I40" s="48" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="89"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="94"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="98"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="89"/>
       <c r="E41" s="57" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="F41" s="48" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="G41" s="48" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="H41" s="48" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="I41" s="48" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B42" s="89"/>
-      <c r="C42" s="88" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B42" s="98"/>
+      <c r="C42" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="D42" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="E42" s="57" t="s">
-        <v>131</v>
-      </c>
       <c r="F42" s="48" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="G42" s="47"/>
       <c r="H42" s="48" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="I42" s="47" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B43" s="89"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="93" t="s">
-        <v>128</v>
-      </c>
-      <c r="E43" s="93" t="s">
-        <v>128</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B43" s="98"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" s="88" t="s">
+        <v>124</v>
       </c>
       <c r="F43" s="48" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="G43" s="48"/>
       <c r="H43" s="48"/>
       <c r="I43" s="48" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B44" s="89"/>
-      <c r="C44" s="89"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="89"/>
       <c r="F44" s="48" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="G44" s="48" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="H44" s="48" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="I44" s="48" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B45" s="89"/>
-      <c r="C45" s="90"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B45" s="103"/>
+      <c r="C45" s="104"/>
       <c r="D45" s="57" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E45" s="57" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F45" s="48" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="G45" s="48" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="H45" s="48" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="I45" s="48" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="D46" s="45" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="D47" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="F47" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="H47" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="I47" s="45" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="D48" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="E48" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="F48" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="H48" s="45" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B49" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="D49" s="60" t="s">
-        <v>211</v>
-      </c>
-      <c r="E49" s="60" t="s">
-        <v>212</v>
-      </c>
-      <c r="F49" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="H49" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="I49" s="45" t="s">
-        <v>209</v>
-      </c>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="B16:B39"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D8:D9"/>
+  <mergeCells count="38">
     <mergeCell ref="E43:E44"/>
     <mergeCell ref="B40:B45"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="D43:D44"/>
     <mergeCell ref="C33:C39"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B3:B16"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
     <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="B17:B39"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E15:E16"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C25:C32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
